--- a/data/trans_bre/P27-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>14,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>24,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,96</t>
+          <t>29,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>-16,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>60,42%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>58,84%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-24,09%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 27,5</t>
+          <t>-9,16; 46,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 26,72</t>
+          <t>2,43; 48,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 35,46</t>
+          <t>5,71; 59,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 62,71</t>
+          <t>-47,36; 6,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 67,31</t>
+          <t>-13,34; 154,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 87,41</t>
+          <t>3,79; 230,11</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 281,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-59,49; 11,6</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>19,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,29</t>
+          <t>23,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,63</t>
+          <t>11,74</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>53,46%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 25,24</t>
+          <t>8,25; 30,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,59; 30,87</t>
+          <t>11,93; 34,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 27,91</t>
+          <t>-1,23; 23,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,39; 64,95</t>
+          <t>-3,23; 22,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,84; 88,26</t>
+          <t>15,52; 78,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,16; 72,8</t>
+          <t>23,2; 95,46</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 53,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 67,89</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,8</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>10,99%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,98%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 14,98</t>
+          <t>-8,0; 15,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 19,82</t>
+          <t>-7,83; 17,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 12,46</t>
+          <t>-13,73; 10,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 34,95</t>
+          <t>-11,6; 14,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 45,81</t>
+          <t>-14,65; 33,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 23,83</t>
+          <t>-13,38; 38,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-20,56; 19,03</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-19,77; 32,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 17,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 21,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 20,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 38,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,19; 53,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 45,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11,88</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,47</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,61</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 20,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,57; 24,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 18,79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 11,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 46,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,94; 62,57</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 40,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-14,36; 26,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P27-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14,57</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>24,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>29,29</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-16,68</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>26,95%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>60,42%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>58,84%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-24,09%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>14.29422909859261</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>21.50427527486392</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>28.93912382122673</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-15.30204297386892</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2598222979042141</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4926616610690316</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.5657505517139377</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2186243931867095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,16; 46,05</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 48,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,71; 59,57</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-47,36; 6,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-13,34; 154,06</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 230,11</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 281,81</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-59,49; 11,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.088772661143855</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1027789220749499</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>6.090513069104388</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-46.08900092516557</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1171368427156777</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.004132959591596064</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.07894419878476938</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5620356060756564</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>42.25553676160316</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>46.14332924414671</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>59.75840405322103</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.967877659839032</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.295746552221642</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.771727788636214</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.712141879821058</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1576639494431975</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>19,03</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>23,31</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,74</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,01</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>41,28%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>53,46%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>23,02%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>8,25; 30,46</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>11,93; 34,94</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 23,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 22,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>15,52; 78,59</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>23,2; 95,46</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 53,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 67,89</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>18.71826611743526</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>23.49861461847286</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.93149353012252</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>11.97747412326516</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.4015727385546039</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5427340836805494</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2386492568494333</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.304492743792767</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,01</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>10,99%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-1,98%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>7.965290220081876</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>12.54646483142225</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.569674181345645</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.469997116649881</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.148357888694638</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.2468293328378316</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.02597749097871889</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.0559993933317051</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,0; 15,2</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,83; 17,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; 10,1</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,6; 14,07</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-14,65; 33,42</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-13,38; 38,16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-20,56; 19,03</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-19,77; 32,67</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>30.3637344465823</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>35.1829248529382</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23.44769755969301</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>23.34093834945386</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.7757596768705536</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.9914808752040535</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5408508481356675</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7250879003215375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.54024343780482</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.287082820834855</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2323136641175338</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.088527374691883</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.114365755042676</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1238921100351347</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.003977900650947865</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.02120727142261093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.77025435659868</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.077738018510206</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.10659101218686</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.34180240061353</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1363247288207665</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1227145616044384</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1965085970906087</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1958880287852981</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.27620340917286</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.98242661762571</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.39863305920935</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.77037653888243</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.4442065560467252</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4159128498850335</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2182531968790564</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.3209565466190274</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>11,88</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>16,47</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,61</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>24,37%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>35,92%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>17,89%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 20,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,57; 24,66</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 18,79</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 11,67</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 46,92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17,94; 62,57</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 40,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-14,36; 26,88</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>12.76508611011478</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>16.57459034566714</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.21798901041032</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.994175797869342</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.263220515908726</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3596697428277252</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1925367650467104</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.08256709257638983</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.040349494119674</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>9.037398680788746</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.924543977790607</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-6.805285917763751</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.07621042938481012</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1838341029692502</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.03463544488701979</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1279107904381668</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.62709928708658</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>24.66592896438246</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>19.0313719064632</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.47118129601743</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4746482282070237</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6199801909651361</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4158920089206902</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2843970583782824</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
